--- a/data/trans_dic/P1423-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01279626146105112</v>
+        <v>0.01028281313830533</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0266161177510812</v>
+        <v>0.02826604266063603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02806332152990278</v>
+        <v>0.02810754158456622</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005889093360159772</v>
+        <v>0.007269884223794165</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06570611475634665</v>
+        <v>0.06669901266448722</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0891306448701106</v>
+        <v>0.08516838100882418</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1045225285058251</v>
+        <v>0.1053780874169604</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03383490425341619</v>
+        <v>0.03598192198592796</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04496164715838392</v>
+        <v>0.0441967475517494</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06332772928741917</v>
+        <v>0.06650648739403535</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07136063527348017</v>
+        <v>0.07328532265211914</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02385031323229085</v>
+        <v>0.02445579939127002</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0491062667564028</v>
+        <v>0.05169220483158519</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07659219178695953</v>
+        <v>0.0779545691668205</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08353181710084111</v>
+        <v>0.08228259644005415</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03346628486311023</v>
+        <v>0.03398531976223526</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1420325118717209</v>
+        <v>0.1473708148094077</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1696899052904568</v>
+        <v>0.1675566774690174</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.191428302230003</v>
+        <v>0.1954944572173613</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07025948143520924</v>
+        <v>0.07078565047846726</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08594141122678889</v>
+        <v>0.08598543461815393</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1097901700226453</v>
+        <v>0.1132100318119521</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.122540567525304</v>
+        <v>0.1213219701687934</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04564177046617523</v>
+        <v>0.04638772034743829</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03109722037814788</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05746705670536967</v>
+        <v>0.05746705670536968</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.09028980739094231</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01337586427867104</v>
+        <v>0.01252593432928829</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02169313586951453</v>
+        <v>0.01985569990707735</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01828547728556065</v>
+        <v>0.01818937114856203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03846718021741971</v>
+        <v>0.03621336589067234</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07091043393240007</v>
+        <v>0.06728040554510478</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09462091039971475</v>
+        <v>0.09819782919972539</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07230621162120579</v>
+        <v>0.07359431971527797</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1124624013562436</v>
+        <v>0.1110526572001152</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04385990450354806</v>
+        <v>0.04517978944741611</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06407197764841799</v>
+        <v>0.06418417575268107</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05104641492361264</v>
+        <v>0.05092397095681874</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08067281343266722</v>
+        <v>0.08307860130242113</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04144046117298528</v>
+        <v>0.04143244250158312</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0629428345910075</v>
+        <v>0.06137704623609028</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04985148534331994</v>
+        <v>0.04977669391177175</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08486342899847565</v>
+        <v>0.08144623855173062</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.120858541195777</v>
+        <v>0.1178511670022285</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1555261326311436</v>
+        <v>0.1581910963678804</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1258260027393854</v>
+        <v>0.1261322668718095</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1625531767886475</v>
+        <v>0.161861973368402</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07441939741801055</v>
+        <v>0.07444043729841336</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1021568885529456</v>
+        <v>0.1009168494530149</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08130458617131552</v>
+        <v>0.08218002758065839</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1141133918066408</v>
+        <v>0.1164516080241784</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01303288850897306</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09183857499490955</v>
+        <v>0.09183857499490956</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.06591053123867656</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002948696802878843</v>
+        <v>0.002942026202529834</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03047035999626909</v>
+        <v>0.0305954372801311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003123140653708415</v>
+        <v>0.003905289956443372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0658621974802996</v>
+        <v>0.06449535603340785</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04397698959407958</v>
+        <v>0.04414735277277589</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08007103597825656</v>
+        <v>0.08451597665009253</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05320724754982691</v>
+        <v>0.05250676334391417</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1214975715037965</v>
+        <v>0.1258094347041194</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02612142120032908</v>
+        <v>0.02563547750953071</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0648190823316416</v>
+        <v>0.0636172370642915</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03232695447195944</v>
+        <v>0.03244956476876422</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1024599617099741</v>
+        <v>0.1034529453477297</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03254428211542777</v>
+        <v>0.03258951404070421</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08095582296651353</v>
+        <v>0.08278860079140289</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03277086525869032</v>
+        <v>0.0328668620180099</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1266492738713903</v>
+        <v>0.1269609743261368</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09449910544131933</v>
+        <v>0.1004918026897965</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1557993214475935</v>
+        <v>0.154864851686752</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1155436036140384</v>
+        <v>0.1118144469218208</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1827255049555306</v>
+        <v>0.1800241347743523</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05553302101685656</v>
+        <v>0.05667429700475148</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1102356344896128</v>
+        <v>0.1083009212229181</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06570197499900005</v>
+        <v>0.06578202481065129</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1461293511204723</v>
+        <v>0.1467103332689918</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.0667098455634583</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.09818602607217242</v>
+        <v>0.09818602607217243</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03330738947967122</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009302224669328375</v>
+        <v>0.008752811660842354</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01105625253698987</v>
+        <v>0.01129602916580403</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01451296455598866</v>
+        <v>0.0144763601092366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04588436459076405</v>
+        <v>0.04514589746498178</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02900805098316334</v>
+        <v>0.02701425103907326</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1045908793606848</v>
+        <v>0.1054038624450844</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04208392181002589</v>
+        <v>0.04318755831969252</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07629965289268793</v>
+        <v>0.07770696678050215</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0214841733847585</v>
+        <v>0.02231235160236002</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.062468150826841</v>
+        <v>0.06243593451031958</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03435400927886999</v>
+        <v>0.03422684018859308</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06897175015217394</v>
+        <v>0.06683409447123925</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0456312060231103</v>
+        <v>0.04105606757114968</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05066030713158316</v>
+        <v>0.04924399777420253</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05124106567719693</v>
+        <v>0.05184046217549824</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1051158608041538</v>
+        <v>0.1084664292302778</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06983006119328614</v>
+        <v>0.07047420925965298</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1753833369068836</v>
+        <v>0.172606058915508</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09518261885691597</v>
+        <v>0.09613882864425227</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1250584997684424</v>
+        <v>0.1261841329802582</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04718090161985658</v>
+        <v>0.04787718211606024</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1017512018753321</v>
+        <v>0.1044072960254619</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06545387139399371</v>
+        <v>0.06800250680451196</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1082473822738157</v>
+        <v>0.1083379697985067</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01686972997060602</v>
+        <v>0.0150626751686889</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02531346837484217</v>
+        <v>0.02427511584325245</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02824958751001163</v>
+        <v>0.03089687570434686</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.005804305390995565</v>
+        <v>0.005501674233899364</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06758569678468623</v>
+        <v>0.06398148409508453</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.152758583264987</v>
+        <v>0.1481009711786223</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08737410156209548</v>
+        <v>0.08650843801360986</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05405641537317159</v>
+        <v>0.05189159328765508</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0471993384951845</v>
+        <v>0.04894703926107711</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09841944376333557</v>
+        <v>0.0975096107103102</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0640432320347801</v>
+        <v>0.06782912386764577</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03361791232330073</v>
+        <v>0.03387015262348382</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06774695256198228</v>
+        <v>0.06873238211460343</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08998506172113739</v>
+        <v>0.08847337330675854</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09106003424870743</v>
+        <v>0.09428048880278186</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03599688547885028</v>
+        <v>0.03471645383607185</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1546132353331799</v>
+        <v>0.1533166588535005</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2610174545865057</v>
+        <v>0.2617490102219158</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1745652089468633</v>
+        <v>0.1790903308687879</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1100407432859311</v>
+        <v>0.1064364307181629</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09586022534239161</v>
+        <v>0.09632982291353208</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.161808663979814</v>
+        <v>0.1639397502276216</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.117434644763327</v>
+        <v>0.123015856332311</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0657713190962743</v>
+        <v>0.06477785860690356</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.02541410343697491</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.101263742537745</v>
+        <v>0.1012637425377451</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.05602274395761447</v>
@@ -1377,7 +1377,7 @@
         <v>0.07704744544883892</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1248443181771307</v>
+        <v>0.1248443181771308</v>
       </c>
     </row>
     <row r="20">
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0292864003062124</v>
+        <v>0.02896486049788979</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01058538729179538</v>
+        <v>0.01061716488109093</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06995948629089084</v>
+        <v>0.07394475968520277</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03002705349602815</v>
+        <v>0.03410266926686664</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09182472732699767</v>
+        <v>0.09482820774934513</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.09078118077723268</v>
+        <v>0.09258594697771942</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1179631982981355</v>
+        <v>0.1176866519357289</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01943302865982016</v>
+        <v>0.01964123088651391</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06846555270396711</v>
+        <v>0.06729617849936213</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.05493138513156604</v>
+        <v>0.05652508713523184</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1022706301366961</v>
+        <v>0.1047644419895304</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02581104381615332</v>
+        <v>0.02577442150829924</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08462241042951149</v>
+        <v>0.08922865672973541</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05080218048778003</v>
+        <v>0.04832116057542578</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1323589677194143</v>
+        <v>0.1393892034389776</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08641812714613716</v>
+        <v>0.09216851997950443</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1765439202933219</v>
+        <v>0.1769939268682683</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1713447120472251</v>
+        <v>0.1700956298800381</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1834390175230915</v>
+        <v>0.1845895150136592</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05049242396547044</v>
+        <v>0.0489795656835026</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.118893119289768</v>
+        <v>0.119962720868562</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1007939272503148</v>
+        <v>0.1020616603556044</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1475066485209595</v>
+        <v>0.149862056430982</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01906020465754279</v>
+        <v>0.01876813494645031</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03576248232327463</v>
+        <v>0.03515301170642433</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01103081088756458</v>
+        <v>0.01192251428263335</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05281299391067178</v>
+        <v>0.05418016688029616</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06182770261704094</v>
+        <v>0.06346694060614856</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06819856768467938</v>
+        <v>0.06919390824195878</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0643311762811043</v>
+        <v>0.06593704493872991</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.128077472705673</v>
+        <v>0.1274871614679899</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04331503849733356</v>
+        <v>0.04438582124678766</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0572936139826698</v>
+        <v>0.05777206278879329</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0414041582472027</v>
+        <v>0.04326778277860057</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.09658999733089713</v>
+        <v>0.09733212772945578</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04484163137447707</v>
+        <v>0.04391751016468566</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07037714994057495</v>
+        <v>0.07288465932687167</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03911491498221396</v>
+        <v>0.03711510215479786</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09925838563082122</v>
+        <v>0.09903497243241992</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.104519465735158</v>
+        <v>0.1033958657070366</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1147415003578342</v>
+        <v>0.1159069357070655</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1103514492732991</v>
+        <v>0.1119825622439859</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1773970051299517</v>
+        <v>0.1762619849696765</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07093230257344096</v>
+        <v>0.070196361430142</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08623974730761368</v>
+        <v>0.08637802417653193</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06964996750125826</v>
+        <v>0.06951836634041421</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1300400639414154</v>
+        <v>0.1297492874597243</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.07965765264794779</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.08483105104516202</v>
+        <v>0.084831051045162</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0444626252096738</v>
+        <v>0.04413855081695685</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01911225668423933</v>
+        <v>0.02006443815420781</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02921697178333268</v>
+        <v>0.02978240764172649</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03748248924623779</v>
+        <v>0.0371500164487206</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05665950382360557</v>
+        <v>0.05541883083950135</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06558659602094724</v>
+        <v>0.06706487730440018</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.09005661768910672</v>
+        <v>0.09294302306735179</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.09992109638009122</v>
+        <v>0.09931473611731</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.054633348383087</v>
+        <v>0.05438841167285997</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04667629541101771</v>
+        <v>0.04823322743790925</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.06656585432132554</v>
+        <v>0.06278831882282827</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.07300106516522682</v>
+        <v>0.07356048356482046</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08029372396179726</v>
+        <v>0.07908062848089541</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04656611267288812</v>
+        <v>0.04734605678993161</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05723119031186021</v>
+        <v>0.05776132784452271</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06875647618419505</v>
+        <v>0.07009337031336607</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.09632519307759976</v>
+        <v>0.09446910589339637</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1060293331937675</v>
+        <v>0.1060656297787548</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1413055319238296</v>
+        <v>0.1412737124686244</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1367897712688837</v>
+        <v>0.1383783164127098</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.07992030136277727</v>
+        <v>0.080504951308395</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.06940941212040516</v>
+        <v>0.07111853371527267</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.09558060889913089</v>
+        <v>0.09273481222319656</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.09828969033802168</v>
+        <v>0.09838497399424864</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02541883440745864</v>
+        <v>0.02526144435520953</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03498303961878504</v>
+        <v>0.0349425746676977</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02735774216036677</v>
+        <v>0.02671871535208471</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05274862338834924</v>
+        <v>0.05284156113167961</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.06684867282896477</v>
+        <v>0.06709415924874697</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1038388704560248</v>
+        <v>0.1032210723958697</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.09236435696909912</v>
+        <v>0.09235842159472096</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1131735126699529</v>
+        <v>0.1128193419395744</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.04824503621807337</v>
+        <v>0.04832922847621215</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.07208381372805435</v>
+        <v>0.07205781917207388</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.06186985075601258</v>
+        <v>0.06161498336982358</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.08626347430456352</v>
+        <v>0.08585809493221654</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03689358837622989</v>
+        <v>0.03770762250023565</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04967038407956309</v>
+        <v>0.05011630025005198</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03899747741607205</v>
+        <v>0.03905860353258332</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.06945010460675888</v>
+        <v>0.06978388707708502</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.0854714691691327</v>
+        <v>0.08637525400442105</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1256947527940435</v>
+        <v>0.1250849597637257</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1132006890924918</v>
+        <v>0.1143308499696666</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1310463898084182</v>
+        <v>0.132085015254281</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.05955317873674727</v>
+        <v>0.05923153005602007</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.0850656742327586</v>
+        <v>0.08532344135043349</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.07434786254695809</v>
+        <v>0.07442686018912092</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.09881609770852656</v>
+        <v>0.09845189202698827</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3494</v>
+        <v>2807</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7845</v>
+        <v>8331</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8244</v>
+        <v>8257</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1878</v>
+        <v>2318</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17139</v>
+        <v>17398</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25602</v>
+        <v>24464</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>30176</v>
+        <v>30423</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10694</v>
+        <v>11372</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>24003</v>
+        <v>23594</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>36856</v>
+        <v>38706</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>41565</v>
+        <v>42686</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>15143</v>
+        <v>15527</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13407</v>
+        <v>14112</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22575</v>
+        <v>22976</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24538</v>
+        <v>24171</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10671</v>
+        <v>10836</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>37047</v>
+        <v>38440</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>48743</v>
+        <v>48130</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>55266</v>
+        <v>56440</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22206</v>
+        <v>22373</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>45880</v>
+        <v>45903</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>63896</v>
+        <v>65886</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>71375</v>
+        <v>70666</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>28978</v>
+        <v>29452</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6595</v>
+        <v>6176</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10966</v>
+        <v>10038</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9190</v>
+        <v>9142</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20412</v>
+        <v>19217</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>35735</v>
+        <v>33906</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>49559</v>
+        <v>51433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>37822</v>
+        <v>38496</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>61460</v>
+        <v>60690</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>43729</v>
+        <v>45045</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>65949</v>
+        <v>66064</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>52356</v>
+        <v>52231</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>86896</v>
+        <v>89487</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20433</v>
+        <v>20429</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31819</v>
+        <v>31028</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25054</v>
+        <v>25017</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45033</v>
+        <v>43219</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>60907</v>
+        <v>59391</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>81459</v>
+        <v>82855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>65818</v>
+        <v>65978</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>88834</v>
+        <v>88457</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>74198</v>
+        <v>74219</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>105149</v>
+        <v>103873</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>83391</v>
+        <v>84289</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>122916</v>
+        <v>125435</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9874</v>
+        <v>9914</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>995</v>
+        <v>1244</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20812</v>
+        <v>20380</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14750</v>
+        <v>14808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>27306</v>
+        <v>28822</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17894</v>
+        <v>17658</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>43299</v>
+        <v>44836</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>17090</v>
+        <v>16772</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>43109</v>
+        <v>42310</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>21170</v>
+        <v>21250</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>68892</v>
+        <v>69559</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10377</v>
+        <v>10391</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26233</v>
+        <v>26827</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10440</v>
+        <v>10470</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40020</v>
+        <v>40119</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31696</v>
+        <v>33706</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>53131</v>
+        <v>52812</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38858</v>
+        <v>37604</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>65120</v>
+        <v>64157</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>36333</v>
+        <v>37080</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>73314</v>
+        <v>72027</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>43027</v>
+        <v>43079</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>98254</v>
+        <v>98644</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3336</v>
+        <v>3139</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4135</v>
+        <v>4225</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5369</v>
+        <v>5356</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17122</v>
+        <v>16846</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10775</v>
+        <v>10035</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>40681</v>
+        <v>40997</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16298</v>
+        <v>16726</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>32195</v>
+        <v>32789</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15686</v>
+        <v>16291</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>47659</v>
+        <v>47634</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>26014</v>
+        <v>25918</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>54840</v>
+        <v>53140</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16367</v>
+        <v>14726</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18946</v>
+        <v>18416</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18957</v>
+        <v>19179</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>39223</v>
+        <v>40474</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>25939</v>
+        <v>26178</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>68216</v>
+        <v>67135</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>36863</v>
+        <v>37233</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>52770</v>
+        <v>53245</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34448</v>
+        <v>34956</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>77629</v>
+        <v>79656</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>49565</v>
+        <v>51495</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>86068</v>
+        <v>86140</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3430</v>
+        <v>3062</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5382</v>
+        <v>5161</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5967</v>
+        <v>6526</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1194</v>
+        <v>1132</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>14035</v>
+        <v>13287</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>33544</v>
+        <v>32522</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>19099</v>
+        <v>18910</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>12374</v>
+        <v>11879</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19398</v>
+        <v>20116</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>42538</v>
+        <v>42145</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>27526</v>
+        <v>29154</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>14610</v>
+        <v>14719</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13773</v>
+        <v>13974</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19132</v>
+        <v>18811</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19234</v>
+        <v>19914</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7403</v>
+        <v>7140</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>32108</v>
+        <v>31839</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>57317</v>
+        <v>57478</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>38158</v>
+        <v>39147</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25190</v>
+        <v>24365</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>39396</v>
+        <v>39589</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>69935</v>
+        <v>70856</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>50474</v>
+        <v>52873</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>28583</v>
+        <v>28151</v>
       </c>
     </row>
     <row r="24">
@@ -3051,37 +3051,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8024</v>
+        <v>7936</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2785</v>
+        <v>2794</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18939</v>
+        <v>20017</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>8352</v>
+        <v>9485</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>25536</v>
+        <v>26371</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>24794</v>
+        <v>25287</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>31113</v>
+        <v>31040</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>10668</v>
+        <v>10782</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>37798</v>
+        <v>37153</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>29456</v>
+        <v>30311</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>54659</v>
+        <v>55992</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6990</v>
+        <v>6980</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23185</v>
+        <v>24447</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13367</v>
+        <v>12714</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>35830</v>
+        <v>37734</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>24037</v>
+        <v>25636</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>49096</v>
+        <v>49221</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>46797</v>
+        <v>46456</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>48382</v>
+        <v>48685</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>27718</v>
+        <v>26888</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>65638</v>
+        <v>66229</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>54050</v>
+        <v>54729</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>78836</v>
+        <v>80095</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>11723</v>
+        <v>11543</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>23703</v>
+        <v>23299</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7242</v>
+        <v>7828</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>38009</v>
+        <v>38993</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>39460</v>
+        <v>40506</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>47320</v>
+        <v>48010</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>44472</v>
+        <v>45582</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>98883</v>
+        <v>98427</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>54284</v>
+        <v>55626</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>77727</v>
+        <v>78376</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>55807</v>
+        <v>58319</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>144088</v>
+        <v>145195</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>27579</v>
+        <v>27010</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>46645</v>
+        <v>48307</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>25681</v>
+        <v>24368</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>71435</v>
+        <v>71274</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>66706</v>
+        <v>65989</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>79614</v>
+        <v>80422</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>76285</v>
+        <v>77413</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>136961</v>
+        <v>136084</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>88896</v>
+        <v>87973</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>116996</v>
+        <v>117184</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>93878</v>
+        <v>93700</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>193986</v>
+        <v>193553</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>33071</v>
+        <v>32830</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>14890</v>
+        <v>15632</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>22748</v>
+        <v>23188</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>29914</v>
+        <v>29648</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>44393</v>
+        <v>43421</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>53950</v>
+        <v>55166</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>74402</v>
+        <v>76786</v>
       </c>
       <c r="J34" s="6" t="n">
+        <v>82563</v>
+      </c>
+      <c r="K34" s="6" t="n">
         <v>83068</v>
       </c>
-      <c r="K34" s="6" t="n">
-        <v>83442</v>
-      </c>
       <c r="L34" s="6" t="n">
-        <v>74760</v>
+        <v>77254</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>106822</v>
+        <v>100760</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>118948</v>
+        <v>119860</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>59722</v>
+        <v>58820</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>36280</v>
+        <v>36887</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>44559</v>
+        <v>44972</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>54873</v>
+        <v>55940</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>75472</v>
+        <v>74018</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>87217</v>
+        <v>87247</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>116742</v>
+        <v>116716</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>113718</v>
+        <v>115038</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>122063</v>
+        <v>122956</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>111171</v>
+        <v>113909</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>153383</v>
+        <v>148816</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>160154</v>
+        <v>160309</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>83286</v>
+        <v>82770</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>119879</v>
+        <v>119740</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>92862</v>
+        <v>90693</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>186348</v>
+        <v>186677</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>225895</v>
+        <v>226724</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>369157</v>
+        <v>366961</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>327389</v>
+        <v>327368</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>422924</v>
+        <v>421601</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>321106</v>
+        <v>321667</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>503280</v>
+        <v>503099</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>429308</v>
+        <v>427540</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>627111</v>
+        <v>624164</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>120883</v>
+        <v>123551</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>170209</v>
+        <v>171737</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>132371</v>
+        <v>132579</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>245351</v>
+        <v>246530</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>288825</v>
+        <v>291879</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>446857</v>
+        <v>444689</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>401245</v>
+        <v>405250</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>489714</v>
+        <v>493596</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>396371</v>
+        <v>394230</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>593918</v>
+        <v>595718</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>515892</v>
+        <v>516440</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>718365</v>
+        <v>715717</v>
       </c>
     </row>
     <row r="40">
